--- a/K-Means/output.xlsx
+++ b/K-Means/output.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -370,45 +370,71 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.833333333333333</v>
+        <v>7.75</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>19.25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.25</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>11.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1270</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.6</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>6.199999999999999</v>
+        <v>4.111111111111111</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.111111111111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100121</v>
       </c>
     </row>
   </sheetData>
